--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -12,18 +12,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>John</t>
+    <t xml:space="preserve">Dispersion in X column: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispersion in Y column: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispersion in Z column: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -53,30 +57,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="2" max="2" width="11.0703125" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>40492.0</v>
+      <c r="B1" t="n">
+        <v>0.30020066935891704</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.053782220004107456</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="n">
+        <v>7.427918040272801</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -87,8 +87,8 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="n">
-        <v>7.427918040272801</v>
+      <c r="F1" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -6,21 +6,111 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" r:id="rId3" sheetId="1"/>
+    <sheet name="Полученные значения" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">Dispersion in X column: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispersion in Y column: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispersion in Z column: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициенты ковариации для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициенты ковариации для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициенты ковариации для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент вариации для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент вариации для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент вариации для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доверительный интервал для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доверительный интервал для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доверительный интервал для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 3-й выборки: </t>
   </si>
 </sst>
 </file>
@@ -65,30 +155,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="41.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="49.74609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="49.74609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.73828125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>0.30020066935891704</v>
+      <c r="B1" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>0.053782220004107456</v>
+        <v>0.48372825699130767</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="e">
         <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.027285504611209023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5486607591052849</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0073553136445352</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5506659598635469</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23307825885659883</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.739150874892997</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.9287923881784081</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8844663705715717</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.804550273027079</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.080468362729306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.42268366304013083</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.3577171367384337</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.30323299935244147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05432547475162369</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.502947515427072</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9300343790091574</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9523209941081725</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.784545404301034</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.9987580091692507</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06785462353660072</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-4.020004868726046</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -50,13 +50,13 @@
     <t xml:space="preserve">Размах для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициенты ковариации для 1-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэффициенты ковариации для 2-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэффициенты ковариации для 3-й выборки: </t>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 3-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Количество элементов для 1-й выборки: </t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">Количество элементов для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициент вариации для 1-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэффициент вариации для 2-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэффициент вариации для 3-й выборки: </t>
+    <t xml:space="preserve">Коэффициент варации для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент варации для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент варации для 3-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Доверительный интервал для 1-й выборки: </t>
@@ -165,8 +165,8 @@
     <col min="2" max="2" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="49.74609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.8515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="49.74609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.73828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="67.71875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -254,19 +254,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>-0.0023716500187338065</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>0.09844939610494902</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>-0.17903759142910064</v>
       </c>
     </row>
     <row r="6">

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
   </si>
@@ -77,13 +77,22 @@
     <t xml:space="preserve">Коэффициент варации для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Доверительный интервал для 1-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доверительный интервал для 2-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доверительный интервал для 3-й выборки: </t>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 1-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 2-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 3-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Оценка дисперсии для 1-й выборки: </t>
@@ -155,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -314,19 +323,19 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>-0.0635743787662762</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0.5102028463939461</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.5553954192871906</v>
       </c>
     </row>
     <row r="9">
@@ -334,19 +343,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30323299935244147</v>
+        <v>0.11814538798869426</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05432547475162369</v>
+        <v>0.5871186718166237</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>7.502947515427072</v>
+        <v>2.45931520800188</v>
       </c>
     </row>
     <row r="10">
@@ -354,19 +363,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9300343790091574</v>
+        <v>0.30323299935244147</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9523209941081725</v>
+        <v>0.05432547475162369</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>7.784545404301034</v>
+        <v>7.502947515427072</v>
       </c>
     </row>
     <row r="11">
@@ -374,18 +383,38 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9987580091692507</v>
+        <v>0.9300343790091574</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06785462353660072</v>
+        <v>0.9523209941081725</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="n">
+        <v>7.784545404301034</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.9987580091692507</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06785462353660072</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="n">
         <v>-4.020004868726046</v>
       </c>
     </row>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
   </si>
@@ -23,6 +23,9 @@
     <t xml:space="preserve">Среднее геометрическое для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Среднее геометрическое для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Среднее арифметическое для 1-й выборки: </t>
   </si>
   <si>
@@ -32,6 +35,9 @@
     <t xml:space="preserve">Среднее арифметическое для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Среднее арифметическое для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Оценка стандартного отклонения для 1-й выборки: </t>
   </si>
   <si>
@@ -41,6 +47,9 @@
     <t xml:space="preserve">Оценка стандартного отклонения для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Размах для 1-й выборки: </t>
   </si>
   <si>
@@ -50,6 +59,9 @@
     <t xml:space="preserve">Размах для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Размах для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 1-й выборки: </t>
   </si>
   <si>
@@ -59,6 +71,9 @@
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Количество элементов для 1-й выборки: </t>
   </si>
   <si>
@@ -68,6 +83,9 @@
     <t xml:space="preserve">Количество элементов для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Количество элементов для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Коэффициент варации для 1-й выборки: </t>
   </si>
   <si>
@@ -77,6 +95,9 @@
     <t xml:space="preserve">Коэффициент варации для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Коэффициент варации для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Нижняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
@@ -86,6 +107,9 @@
     <t xml:space="preserve">Нижняя граница доверительного интервала для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Верхняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
@@ -95,6 +119,9 @@
     <t xml:space="preserve">Верхняя граница доверительного интервала для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Оценка дисперсии для 1-й выборки: </t>
   </si>
   <si>
@@ -104,6 +131,9 @@
     <t xml:space="preserve">Оценка дисперсии для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Оценка дисперсии для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Максимум для 1-й выборки: </t>
   </si>
   <si>
@@ -113,6 +143,9 @@
     <t xml:space="preserve">Максимум для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Максимум для 4-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Минимум для 1-й выборки: </t>
   </si>
   <si>
@@ -120,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">Минимум для 3-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 4-й выборки: </t>
   </si>
 </sst>
 </file>
@@ -164,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -175,7 +211,9 @@
     <col min="3" max="3" width="49.74609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="67.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.52734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.73828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="67.71875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -197,224 +235,296 @@
       <c r="F1" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>0.027285504611209023</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0.5486607591052849</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>2.0073553136445352</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.0073553136445352</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>0.5506659598635469</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0.23307825885659883</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>2.739150874892997</v>
       </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.739150874892997</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1.9287923881784081</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>0.8844663705715717</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>11.804550273027079</v>
       </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.804550273027079</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0023716500187338065</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>0.09844939610494902</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.17903759142910064</v>
+        <v>7.502947515427074</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09844939610494902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
         <v>100.0</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
         <v>100.0</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
         <v>100.0</v>
       </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
         <v>20.080468362729306</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>0.42268366304013083</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
         <v>1.3577171367384337</v>
       </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.3577171367384337</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n">
         <v>-0.0635743787662762</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.5102028463939461</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
         <v>1.5553954192871906</v>
       </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.5553954192871906</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
         <v>0.11814538798869426</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
         <v>0.5871186718166237</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
         <v>2.45931520800188</v>
       </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.45931520800188</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
         <v>0.30323299935244147</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
         <v>0.05432547475162369</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F10" t="n">
         <v>7.502947515427072</v>
       </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.502947515427072</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
         <v>0.9300343790091574</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
         <v>0.9523209941081725</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
         <v>7.784545404301034</v>
       </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.784545404301034</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" t="n">
         <v>-0.9987580091692507</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
         <v>0.06785462353660072</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
+        <v>-4.020004868726046</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="n">
         <v>-4.020004868726046</v>
       </c>
     </row>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
   </si>
@@ -23,9 +23,6 @@
     <t xml:space="preserve">Среднее геометрическое для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Среднее геометрическое для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Среднее арифметическое для 1-й выборки: </t>
   </si>
   <si>
@@ -35,9 +32,6 @@
     <t xml:space="preserve">Среднее арифметическое для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Среднее арифметическое для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Оценка стандартного отклонения для 1-й выборки: </t>
   </si>
   <si>
@@ -47,9 +41,6 @@
     <t xml:space="preserve">Оценка стандартного отклонения для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Оценка стандартного отклонения для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Размах для 1-й выборки: </t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t xml:space="preserve">Размах для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Размах для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 1-й выборки: </t>
   </si>
   <si>
@@ -71,9 +59,6 @@
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Количество элементов для 1-й выборки: </t>
   </si>
   <si>
@@ -83,9 +68,6 @@
     <t xml:space="preserve">Количество элементов для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Количество элементов для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Коэффициент варации для 1-й выборки: </t>
   </si>
   <si>
@@ -95,9 +77,6 @@
     <t xml:space="preserve">Коэффициент варации для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициент варации для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Нижняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
@@ -107,9 +86,6 @@
     <t xml:space="preserve">Нижняя граница доверительного интервала для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Нижняя граница доверительного интервала для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Верхняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
@@ -119,9 +95,6 @@
     <t xml:space="preserve">Верхняя граница доверительного интервала для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Верхняя граница доверительного интервала для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Оценка дисперсии для 1-й выборки: </t>
   </si>
   <si>
@@ -131,9 +104,6 @@
     <t xml:space="preserve">Оценка дисперсии для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Оценка дисперсии для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Максимум для 1-й выборки: </t>
   </si>
   <si>
@@ -143,9 +113,6 @@
     <t xml:space="preserve">Максимум для 3-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Максимум для 4-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Минимум для 1-й выборки: </t>
   </si>
   <si>
@@ -153,9 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">Минимум для 3-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Минимум для 4-й выборки: </t>
   </si>
 </sst>
 </file>
@@ -200,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -211,9 +175,7 @@
     <col min="3" max="3" width="49.74609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="67.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.73828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="67.71875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -227,7 +189,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>0.48372825699130767</v>
+        <v>0.5490716333494366</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -235,297 +197,225 @@
       <c r="F1" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="e">
-        <v>#NUM!</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.08575586070772259</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.027285504611209023</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="n">
+        <v>0.5981925273873964</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.5486607591052849</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" t="n">
-        <v>2.0073553136445352</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.0073553136445352</v>
+        <v>2.2377693211459815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5618782570667403</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2088419802184494</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.5506659598635469</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23307825885659883</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="n">
-        <v>2.739150874892997</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.739150874892997</v>
+        <v>3.0187694628076245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9287923881784081</v>
+        <v>1.9783054874278605</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8844663705715717</v>
+        <v>0.8995421954413824</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>11.804550273027079</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11.804550273027079</v>
+        <v>14.539280728964417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0023716500187338065</v>
+        <v>0.010352502365498943</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09844939610494902</v>
+        <v>0.01230734702769087</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>7.502947515427074</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.09844939610494902</v>
+        <v>0.29473446657327257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>100.0</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>100.0</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>100.0</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>20.080468362729306</v>
+        <v>6.5192256523457095</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.42268366304013083</v>
+        <v>0.3473716857771041</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>1.3577171367384337</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.3577171367384337</v>
+        <v>1.3422463444429102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0635743787662762</v>
+        <v>-0.006954051708289555</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5102028463939461</v>
+        <v>0.5637336006513523</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5553954192871906</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.5553954192871906</v>
+        <v>1.7396723597827235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.11814538798869426</v>
+        <v>0.17846577312373474</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5871186718166237</v>
+        <v>0.6326514541234405</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>2.45931520800188</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.45931520800188</v>
+        <v>2.7358662825092397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30323299935244147</v>
+        <v>0.315707175764358</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05432547475162369</v>
+        <v>0.04361497270156321</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>7.502947515427072</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.502947515427072</v>
+        <v>9.112969069579835</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9300343790091574</v>
+        <v>0.9832735722884536</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9523209941081725</v>
+        <v>0.9917113389539829</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>7.784545404301034</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.784545404301034</v>
+        <v>10.625527530777841</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9987580091692507</v>
+        <v>-0.9950319151394069</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06785462353660072</v>
+        <v>0.09216914351260054</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.020004868726046</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-4.020004868726046</v>
+        <v>-3.9137531981865763</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -175,7 +175,7 @@
     <col min="3" max="3" width="49.74609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="67.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.73828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -189,7 +189,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>0.5490716333494366</v>
+        <v>0.5565811503729629</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -203,19 +203,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08575586070772259</v>
+        <v>0.0019104679425557306</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5981925273873964</v>
+        <v>0.6151980836500521</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2377693211459815</v>
+        <v>1.3706230941087303</v>
       </c>
     </row>
     <row r="3">
@@ -223,19 +223,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5618782570667403</v>
+        <v>0.5892285904932517</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2088419802184494</v>
+        <v>0.23824862442915698</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0187694628076245</v>
+        <v>3.4716991967473048</v>
       </c>
     </row>
     <row r="4">
@@ -243,19 +243,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9783054874278605</v>
+        <v>1.6918176305480301</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8995421954413824</v>
+        <v>0.8246188284448921</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>14.539280728964417</v>
+        <v>11.13785641232145</v>
       </c>
     </row>
     <row r="5">
@@ -263,19 +263,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.010352502365498943</v>
+        <v>-0.0016375077264237116</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01230734702769087</v>
+        <v>0.05067571442929425</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.29473446657327257</v>
+        <v>0.0053383090152330295</v>
       </c>
     </row>
     <row r="6">
@@ -283,19 +283,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>100.0</v>
+        <v>15.0</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>100.0</v>
+        <v>15.0</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>100.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -303,19 +303,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5192256523457095</v>
+        <v>297.96307331355297</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3473716857771041</v>
+        <v>0.3741397193978958</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>1.3422463444429102</v>
+        <v>2.4470476834344765</v>
       </c>
     </row>
     <row r="8">
@@ -323,19 +323,19 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006954051708289555</v>
+        <v>-0.24911750904730395</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5637336006513523</v>
+        <v>0.5136974586362476</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7396723597827235</v>
+        <v>-0.10841855481610696</v>
       </c>
     </row>
     <row r="9">
@@ -343,19 +343,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17846577312373474</v>
+        <v>0.2529384449324154</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6326514541234405</v>
+        <v>0.7166987086638567</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>2.7358662825092397</v>
+        <v>2.8496647430335678</v>
       </c>
     </row>
     <row r="10">
@@ -363,19 +363,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315707175764358</v>
+        <v>0.3471903318546641</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04361497270156321</v>
+        <v>0.05676240704238549</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>9.112969069579835</v>
+        <v>12.05269531269588</v>
       </c>
     </row>
     <row r="11">
@@ -383,19 +383,19 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9832735722884536</v>
+        <v>0.8207750557921827</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9917113389539829</v>
+        <v>0.9662961962314939</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>10.625527530777841</v>
+        <v>7.439512783585943</v>
       </c>
     </row>
     <row r="12">
@@ -403,19 +403,19 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9950319151394069</v>
+        <v>-0.8710425747558475</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09216914351260054</v>
+        <v>0.14167736778660175</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.9137531981865763</v>
+        <v>-3.698343628735506</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
   </si>
@@ -20,106 +20,70 @@
     <t xml:space="preserve">Среднее геометрическое для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Среднее геометрическое для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Среднее арифметическое для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Среднее арифметическое для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Среднее арифметическое для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Оценка стандартного отклонения для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Оценка стандартного отклонения для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Оценка стандартного отклонения для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Размах для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Размах для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Размах для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Количество элементов для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Количество элементов для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Количество элементов для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Коэффициент варации для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Коэффициент варации для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициент варации для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Нижняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Нижняя граница доверительного интервала для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Нижняя граница доверительного интервала для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Верхняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Верхняя граница доверительного интервала для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Верхняя граница доверительного интервала для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Оценка дисперсии для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Оценка дисперсии для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Оценка дисперсии для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Максимум для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Максимум для 2-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Максимум для 3-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Минимум для 1-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Минимум для 2-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Минимум для 3-й выборки: </t>
   </si>
 </sst>
 </file>
@@ -164,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,8 +138,6 @@
     <col min="2" max="2" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="49.74609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.8515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="67.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.73828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -189,233 +151,161 @@
         <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>0.5565811503729629</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="e">
-        <v>#NUM!</v>
+        <v>0.5502122665387823</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.07816984862538756</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0019104679425557306</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.6151980836500521</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.3706230941087303</v>
+        <v>0.5979622581411146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5892285904932517</v>
+        <v>0.5485789837376182</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23824862442915698</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.4716991967473048</v>
+        <v>0.20514866728069425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.6918176305480301</v>
+        <v>1.9783054874278605</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8246188284448921</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11.13785641232145</v>
+        <v>0.8995421954413824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0016375077264237116</v>
+        <v>0.013539084670204421</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05067571442929425</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0053383090152330295</v>
+        <v>0.013539084670204421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0</v>
+        <v>87.0</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>297.96307331355297</v>
+        <v>6.977333696690951</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3741397193978958</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.4470476834344765</v>
+        <v>0.34110220434036376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.24911750904730395</v>
+        <v>-0.01887298816886951</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5136974586362476</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.10841855481610696</v>
+        <v>0.561671752621126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2529384449324154</v>
+        <v>0.17521268541964463</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7166987086638567</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.8496647430335678</v>
+        <v>0.6342527636611032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3471903318546641</v>
+        <v>0.3009389013985979</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05676240704238549</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12.05269531269588</v>
+        <v>0.042085975687044995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8207750557921827</v>
+        <v>0.9832735722884536</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9662961962314939</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7.439512783585943</v>
+        <v>0.9917113389539829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8710425747558475</v>
+        <v>-0.9950319151394069</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14167736778660175</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-3.698343628735506</v>
+        <v>0.09216914351260054</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Полученные значения" r:id="rId3" sheetId="1"/>
+    <sheet name="Матрица ковариации" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
   </si>
@@ -84,6 +85,12 @@
   </si>
   <si>
     <t xml:space="preserve">Минимум для 2-й выборки: </t>
+  </si>
+  <si>
+    <t>Выборка 1</t>
+  </si>
+  <si>
+    <t>Выборка 2</t>
   </si>
 </sst>
 </file>
@@ -311,4 +318,51 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>228.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>228.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">Количество элементов для 2-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэффициент варации для 1-й выборки: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэффициент варации для 2-й выборки: </t>
   </si>
   <si>
     <t xml:space="preserve">Нижняя граница доверительного интервала для 1-й выборки: </t>
@@ -135,7 +129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -208,13 +202,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.013539084670204421</v>
+        <v>87.0</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.013539084670204421</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="6">
@@ -222,13 +216,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>87.0</v>
+        <v>6.977333696690951</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>87.0</v>
+        <v>0.34110220434036376</v>
       </c>
     </row>
     <row r="7">
@@ -236,13 +230,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>6.977333696690951</v>
+        <v>-0.01887298816886951</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.34110220434036376</v>
+        <v>0.561671752621126</v>
       </c>
     </row>
     <row r="8">
@@ -250,13 +244,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01887298816886951</v>
+        <v>0.17521268541964463</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>0.561671752621126</v>
+        <v>0.6342527636611032</v>
       </c>
     </row>
     <row r="9">
@@ -264,13 +258,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17521268541964463</v>
+        <v>0.3009389013985979</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6342527636611032</v>
+        <v>0.042085975687044995</v>
       </c>
     </row>
     <row r="10">
@@ -278,13 +272,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3009389013985979</v>
+        <v>0.9832735722884536</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.042085975687044995</v>
+        <v>0.9917113389539829</v>
       </c>
     </row>
     <row r="11">
@@ -292,26 +286,12 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9832735722884536</v>
+        <v>-0.9950319151394069</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9917113389539829</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.9950319151394069</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
         <v>0.09216914351260054</v>
       </c>
     </row>
@@ -329,37 +309,37 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>228.0</v>
+        <v>0.30093890139859797</v>
       </c>
       <c r="C2" t="n">
-        <v>228.0</v>
+        <v>0.013539084670204421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>228.0</v>
+        <v>0.013539084670204421</v>
       </c>
       <c r="C3" t="n">
-        <v>228.0</v>
+        <v>0.042085975687045</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/краб.xlsx
+++ b/lab2/краб.xlsx
@@ -13,78 +13,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Среднее геометрическое для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Среднее арифметическое для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Среднее арифметическое для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Оценка стандартного отклонения для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Оценка стандартного отклонения для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Размах для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Размах для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Количество элементов для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Количество элементов для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Нижняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Нижняя граница доверительного интервала для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Верхняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Верхняя граница доверительного интервала для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Оценка дисперсии для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Оценка дисперсии для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Максимум для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Максимум для 2-й выборки: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Минимум для 1-й выборки: </t>
   </si>
   <si>
-    <t xml:space="preserve">Минимум для 2-й выборки: </t>
-  </si>
-  <si>
     <t>Выборка 1</t>
-  </si>
-  <si>
-    <t>Выборка 2</t>
   </si>
 </sst>
 </file>
@@ -129,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -137,8 +101,6 @@
   <cols>
     <col min="1" max="1" width="41.84375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.8515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="49.74609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -148,151 +110,85 @@
       <c r="B1" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0.5502122665387823</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07816984862538756</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5979622581411146</v>
+        <v>0.09265967117922966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5485789837376182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.20514866728069425</v>
+        <v>0.9845113662267538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9783054874278605</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8995421954413824</v>
+        <v>6.735561275164901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>87.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.977333696690951</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.34110220434036376</v>
+        <v>10.568956341619822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.01887298816886951</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.561671752621126</v>
+        <v>-0.07400474142729108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.17521268541964463</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6342527636611032</v>
+        <v>0.2593240837857504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3009389013985979</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.042085975687044995</v>
+        <v>0.9692626302296695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9832735722884536</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9917113389539829</v>
+        <v>5.3913070104862815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9950319151394069</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.09216914351260054</v>
+        <v>-1.3442542646786197</v>
       </c>
     </row>
   </sheetData>
@@ -302,44 +198,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.30093890139859797</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.013539084670204421</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.013539084670204421</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.042085975687045</v>
+        <v>0.9692626302296695</v>
       </c>
     </row>
   </sheetData>
